--- a/JavaScript講習カリキュラム.xlsx
+++ b/JavaScript講習カリキュラム.xlsx
@@ -323,8 +323,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -345,16 +349,20 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -686,7 +694,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -746,7 +754,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2">
-        <v>41697</v>
+        <v>41732</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -757,7 +765,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2">
-        <v>41704</v>
+        <v>41739</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -768,7 +776,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2">
-        <v>41711</v>
+        <v>41746</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -779,7 +787,7 @@
     </row>
     <row r="11" spans="2:5" ht="44">
       <c r="B11" s="2">
-        <v>41718</v>
+        <v>41753</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -790,7 +798,7 @@
     </row>
     <row r="12" spans="2:5" ht="44">
       <c r="B12" s="2">
-        <v>41725</v>
+        <v>41760</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -801,7 +809,7 @@
     </row>
     <row r="13" spans="2:5" ht="44">
       <c r="B13" s="2">
-        <v>41732</v>
+        <v>41767</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>

--- a/JavaScript講習カリキュラム.xlsx
+++ b/JavaScript講習カリキュラム.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="27680" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>JavaScript講習カリキュラム</t>
     <rPh sb="10" eb="12">
@@ -88,36 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第８回</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第９回</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第１０回</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -160,62 +130,6 @@
   </si>
   <si>
     <t>スコープについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト指向について〜前編〜</t>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゼンペン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト指向について〜後編〜</t>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゼンペン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JavaScriptのライブラリを使ってみよう
-〜jQuery編〜</t>
-    <rPh sb="17" eb="18">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヘン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JavaScriptのライブラリを使ってみよう
-〜enchant.js編〜</t>
-    <rPh sb="17" eb="23">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヘン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JavaScriptのライブラリを使ってみよう
-〜jQuery編2〜</t>
-    <rPh sb="17" eb="18">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヘン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -248,6 +162,23 @@
     <t>オブジェクトを学ぼう</t>
     <rPh sb="7" eb="8">
       <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptのライブラリを使ってみよう〜enchant.js編〜</t>
+    <rPh sb="17" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト指向について</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,11 +622,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -710,13 +639,13 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -727,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -738,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -749,23 +678,23 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2">
-        <v>41732</v>
+        <v>41774</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2">
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -774,51 +703,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" ht="30" customHeight="1">
       <c r="B10" s="2">
-        <v>41746</v>
+        <v>41788</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="44">
-      <c r="B11" s="2">
-        <v>41753</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="44">
-      <c r="B12" s="2">
-        <v>41760</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="44">
-      <c r="B13" s="2">
-        <v>41767</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
